--- a/Jogos_do_Dia/2023-06-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>League</t>
   </si>
@@ -208,6 +208,9 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Changchun Yatai</t>
   </si>
   <si>
@@ -232,12 +235,12 @@
     <t>Sparta Rotterdam</t>
   </si>
   <si>
+    <t>Aswan FC</t>
+  </si>
+  <si>
     <t>Cagliari</t>
   </si>
   <si>
-    <t>Aswan FC</t>
-  </si>
-  <si>
     <t>Criciúma</t>
   </si>
   <si>
@@ -256,24 +259,21 @@
     <t>Floresta</t>
   </si>
   <si>
+    <t>Aparecidense</t>
+  </si>
+  <si>
+    <t>Al Ahly</t>
+  </si>
+  <si>
+    <t>Metropolitanos</t>
+  </si>
+  <si>
     <t>Jacuipense</t>
   </si>
   <si>
-    <t>Iguatu</t>
-  </si>
-  <si>
     <t>Princesa Solimões</t>
   </si>
   <si>
-    <t>Al Ahly</t>
-  </si>
-  <si>
-    <t>Metropolitanos</t>
-  </si>
-  <si>
-    <t>Aparecidense</t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
@@ -283,10 +283,13 @@
     <t>San Martín Tucumán</t>
   </si>
   <si>
+    <t>Olimpia</t>
+  </si>
+  <si>
     <t>Flamengo</t>
   </si>
   <si>
-    <t>Olimpia</t>
+    <t>Figueirense</t>
   </si>
   <si>
     <t>Shenzhen</t>
@@ -313,12 +316,12 @@
     <t>Twente</t>
   </si>
   <si>
+    <t>Al Mokawloon</t>
+  </si>
+  <si>
     <t>Bari 1908</t>
   </si>
   <si>
-    <t>Al Mokawloon</t>
-  </si>
-  <si>
     <t>Juventude</t>
   </si>
   <si>
@@ -337,24 +340,21 @@
     <t>São Bernardo</t>
   </si>
   <si>
+    <t>Brusque</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
+    <t>Independiente Medellín</t>
+  </si>
+  <si>
     <t>Cruzeiro Arapiraca</t>
   </si>
   <si>
-    <t>Campinense</t>
-  </si>
-  <si>
     <t>Humaitá</t>
   </si>
   <si>
-    <t>Zamalek</t>
-  </si>
-  <si>
-    <t>Independiente Medellín</t>
-  </si>
-  <si>
-    <t>Brusque</t>
-  </si>
-  <si>
     <t>Pacajus</t>
   </si>
   <si>
@@ -364,10 +364,13 @@
     <t>Estudiantes Río Cuarto</t>
   </si>
   <si>
+    <t>Atlético Nacional</t>
+  </si>
+  <si>
     <t>Racing Club</t>
   </si>
   <si>
-    <t>Atlético Nacional</t>
+    <t>Ypiranga Erechim</t>
   </si>
 </sst>
 </file>
@@ -856,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>1.33</v>
@@ -963,10 +966,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>1.54</v>
@@ -1070,10 +1073,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4">
         <v>3.7</v>
@@ -1177,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G5">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1207,7 +1210,7 @@
         <v>1.95</v>
       </c>
       <c r="O5">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1284,19 +1287,19 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="H6">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I6">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1311,10 +1314,10 @@
         <v>3.5</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O6">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P6">
         <v>1.36</v>
@@ -1391,58 +1394,58 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W7">
         <v>1.13</v>
@@ -1498,19 +1501,19 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="H8">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I8">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="J8">
         <v>1.12</v>
@@ -1519,16 +1522,16 @@
         <v>5.5</v>
       </c>
       <c r="L8">
+        <v>1.51</v>
+      </c>
+      <c r="M8">
+        <v>2.47</v>
+      </c>
+      <c r="N8">
+        <v>2.56</v>
+      </c>
+      <c r="O8">
         <v>1.45</v>
-      </c>
-      <c r="M8">
-        <v>2.55</v>
-      </c>
-      <c r="N8">
-        <v>2.55</v>
-      </c>
-      <c r="O8">
-        <v>1.37</v>
       </c>
       <c r="P8">
         <v>1.56</v>
@@ -1605,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="H9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J9">
         <v>1.04</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>45085</v>
@@ -1709,105 +1712,105 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>1.73</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I10">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="J10">
         <v>1.08</v>
       </c>
       <c r="K10">
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="L10">
+        <v>1.45</v>
+      </c>
+      <c r="M10">
+        <v>2.6</v>
+      </c>
+      <c r="N10">
+        <v>2.39</v>
+      </c>
+      <c r="O10">
+        <v>1.51</v>
+      </c>
+      <c r="P10">
+        <v>1.58</v>
+      </c>
+      <c r="Q10">
+        <v>2.29</v>
+      </c>
+      <c r="R10">
+        <v>2.04</v>
+      </c>
+      <c r="S10">
+        <v>1.74</v>
+      </c>
+      <c r="T10">
+        <v>1.5</v>
+      </c>
+      <c r="U10">
+        <v>1.32</v>
+      </c>
+      <c r="V10">
+        <v>1.25</v>
+      </c>
+      <c r="W10">
+        <v>1.13</v>
+      </c>
+      <c r="X10">
+        <v>1.33</v>
+      </c>
+      <c r="Y10">
         <v>1.39</v>
       </c>
-      <c r="M10">
-        <v>3.03</v>
-      </c>
-      <c r="N10">
-        <v>2.1</v>
-      </c>
-      <c r="O10">
-        <v>1.67</v>
-      </c>
-      <c r="P10">
-        <v>1.57</v>
-      </c>
-      <c r="Q10">
-        <v>2.49</v>
-      </c>
-      <c r="R10">
-        <v>2.05</v>
-      </c>
-      <c r="S10">
-        <v>1.73</v>
-      </c>
-      <c r="T10">
-        <v>1.19</v>
-      </c>
-      <c r="U10">
-        <v>1.29</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>1.63</v>
-      </c>
-      <c r="X10">
-        <v>1.7</v>
-      </c>
-      <c r="Y10">
-        <v>1.75</v>
-      </c>
       <c r="Z10">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AA10">
-        <v>3</v>
+        <v>2.54</v>
       </c>
       <c r="AB10">
-        <v>1.42</v>
+        <v>2.01</v>
       </c>
       <c r="AC10">
-        <v>9.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD10">
-        <v>3.56</v>
+        <v>2.03</v>
       </c>
       <c r="AE10">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AF10">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AG10">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AH10">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AI10">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>45085</v>
@@ -1816,100 +1819,100 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G11">
-        <v>3.44</v>
+        <v>1.79</v>
       </c>
       <c r="H11">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="I11">
-        <v>2.3</v>
+        <v>4.45</v>
       </c>
       <c r="J11">
         <v>1.08</v>
       </c>
       <c r="K11">
-        <v>6.1</v>
+        <v>9.1</v>
       </c>
       <c r="L11">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>3.03</v>
       </c>
       <c r="N11">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="O11">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="P11">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q11">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="R11">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S11">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T11">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="U11">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>1.63</v>
+      </c>
+      <c r="X11">
+        <v>1.7</v>
+      </c>
+      <c r="Y11">
+        <v>1.75</v>
+      </c>
+      <c r="Z11">
         <v>1.25</v>
       </c>
-      <c r="W11">
-        <v>1.13</v>
-      </c>
-      <c r="X11">
-        <v>1.33</v>
-      </c>
-      <c r="Y11">
-        <v>1.39</v>
-      </c>
-      <c r="Z11">
-        <v>1.15</v>
-      </c>
       <c r="AA11">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="AB11">
-        <v>2.01</v>
+        <v>1.42</v>
       </c>
       <c r="AC11">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11">
-        <v>2.03</v>
+        <v>3.56</v>
       </c>
       <c r="AE11">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AF11">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AG11">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AH11">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AI11">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1926,19 +1929,19 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I12">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J12">
         <v>1.08</v>
@@ -1953,7 +1956,7 @@
         <v>2.71</v>
       </c>
       <c r="N12">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O12">
         <v>1.53</v>
@@ -2033,19 +2036,19 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2060,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2140,19 +2143,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G14">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="H14">
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
       <c r="I14">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J14">
         <v>1.11</v>
@@ -2161,10 +2164,10 @@
         <v>6.5</v>
       </c>
       <c r="L14">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M14">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="N14">
         <v>2.3</v>
@@ -2247,58 +2250,58 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -2354,19 +2357,19 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2381,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2461,58 +2464,58 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W17">
         <v>1.33</v>
@@ -2542,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -2556,7 +2559,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
         <v>45085</v>
@@ -2565,76 +2568,76 @@
         <v>59</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y18">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="Z18">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AA18">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2652,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2663,7 +2666,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>45085</v>
@@ -2672,13 +2675,13 @@
         <v>59</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2729,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>1.5</v>
+        <v>2.43</v>
       </c>
       <c r="X19">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="Y19">
-        <v>2.33</v>
+        <v>1.77</v>
       </c>
       <c r="Z19">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AA19">
-        <v>4.08</v>
+        <v>3.4</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2770,7 +2773,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2">
         <v>45085</v>
@@ -2779,105 +2782,105 @@
         <v>59</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="Y20">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="Z20">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="AA20">
-        <v>2.76</v>
+        <v>2.51</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2">
         <v>45085</v>
@@ -2886,22 +2889,22 @@
         <v>59</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2916,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2943,19 +2946,19 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>2.43</v>
+        <v>0.33</v>
       </c>
       <c r="X21">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="Y21">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="Z21">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AA21">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2984,7 +2987,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>45085</v>
@@ -2993,129 +2996,129 @@
         <v>59</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G22">
-        <v>4.33</v>
+        <v>1.73</v>
       </c>
       <c r="H22">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I22">
-        <v>1.73</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O22">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P22">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="Z22">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="AA22">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="AB22">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2">
         <v>45085</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3130,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3157,19 +3160,19 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X23">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y23">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="Z23">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AA23">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3198,85 +3201,85 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2">
         <v>45085</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W24">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="X24">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="Z24">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="AA24">
-        <v>2.97</v>
+        <v>2.81</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3297,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -3305,22 +3308,22 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2">
         <v>45085</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3371,19 +3374,19 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>1.33</v>
+        <v>2.44</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="Y25">
-        <v>1.71</v>
+        <v>1.21</v>
       </c>
       <c r="Z25">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="AA25">
-        <v>2.81</v>
+        <v>2.56</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3412,109 +3415,109 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2">
         <v>45085</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W26">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="X26">
-        <v>0.44</v>
+        <v>2.5</v>
       </c>
       <c r="Y26">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="Z26">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AA26">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3531,19 +3534,19 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H27">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="I27">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="J27">
         <v>1.05</v>
@@ -3626,109 +3629,109 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
         <v>45085</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G28">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="N28">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O28">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="P28">
         <v>1.44</v>
       </c>
       <c r="Q28">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="T28">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="U28">
         <v>1.33</v>
       </c>
       <c r="V28">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W28">
         <v>2</v>
       </c>
       <c r="X28">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y28">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="Z28">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AA28">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="AB28">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AI28">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-06-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -235,12 +235,12 @@
     <t>Sparta Rotterdam</t>
   </si>
   <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
     <t>Aswan FC</t>
   </si>
   <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
     <t>Criciúma</t>
   </si>
   <si>
@@ -259,21 +259,21 @@
     <t>Floresta</t>
   </si>
   <si>
+    <t>Metropolitanos</t>
+  </si>
+  <si>
     <t>Aparecidense</t>
   </si>
   <si>
+    <t>Princesa Solimões</t>
+  </si>
+  <si>
+    <t>Jacuipense</t>
+  </si>
+  <si>
     <t>Al Ahly</t>
   </si>
   <si>
-    <t>Metropolitanos</t>
-  </si>
-  <si>
-    <t>Jacuipense</t>
-  </si>
-  <si>
-    <t>Princesa Solimões</t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>San Martín Tucumán</t>
   </si>
   <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
     <t>Olimpia</t>
   </si>
   <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
     <t>Figueirense</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>Twente</t>
   </si>
   <si>
+    <t>Bari 1908</t>
+  </si>
+  <si>
     <t>Al Mokawloon</t>
   </si>
   <si>
-    <t>Bari 1908</t>
-  </si>
-  <si>
     <t>Juventude</t>
   </si>
   <si>
@@ -340,21 +340,21 @@
     <t>São Bernardo</t>
   </si>
   <si>
+    <t>Independiente Medellín</t>
+  </si>
+  <si>
     <t>Brusque</t>
   </si>
   <si>
+    <t>Humaitá</t>
+  </si>
+  <si>
+    <t>Cruzeiro Arapiraca</t>
+  </si>
+  <si>
     <t>Zamalek</t>
   </si>
   <si>
-    <t>Independiente Medellín</t>
-  </si>
-  <si>
-    <t>Cruzeiro Arapiraca</t>
-  </si>
-  <si>
-    <t>Humaitá</t>
-  </si>
-  <si>
     <t>Pacajus</t>
   </si>
   <si>
@@ -364,10 +364,10 @@
     <t>Estudiantes Río Cuarto</t>
   </si>
   <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
     <t>Atlético Nacional</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
   </si>
   <si>
     <t>Ypiranga Erechim</t>
@@ -865,13 +865,13 @@
         <v>92</v>
       </c>
       <c r="G2">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="H2">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="J2">
         <v>1.04</v>
@@ -889,7 +889,7 @@
         <v>1.67</v>
       </c>
       <c r="O2">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P2">
         <v>1.32</v>
@@ -913,10 +913,10 @@
         <v>2.64</v>
       </c>
       <c r="W2">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="X2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Y2">
         <v>1.5</v>
@@ -1020,10 +1020,10 @@
         <v>2.3</v>
       </c>
       <c r="W3">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="X3">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="Y3">
         <v>1.73</v>
@@ -1079,13 +1079,13 @@
         <v>94</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I4">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J4">
         <v>1.06</v>
@@ -1100,10 +1100,10 @@
         <v>3.26</v>
       </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="O4">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="P4">
         <v>1.43</v>
@@ -1127,10 +1127,10 @@
         <v>1.3</v>
       </c>
       <c r="W4">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="Y4">
         <v>1.41</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X5">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Y5">
         <v>0.99</v>
@@ -1293,13 +1293,13 @@
         <v>96</v>
       </c>
       <c r="G6">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="H6">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1314,10 +1314,10 @@
         <v>3.5</v>
       </c>
       <c r="N6">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O6">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <v>1.36</v>
@@ -1341,10 +1341,10 @@
         <v>2.7</v>
       </c>
       <c r="W6">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="X6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Y6">
         <v>1.71</v>
@@ -1400,13 +1400,13 @@
         <v>97</v>
       </c>
       <c r="G7">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="H7">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>4.27</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>1.07</v>
@@ -1415,16 +1415,16 @@
         <v>6.5</v>
       </c>
       <c r="L7">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="M7">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O7">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P7">
         <v>1.57</v>
@@ -1433,10 +1433,10 @@
         <v>2.25</v>
       </c>
       <c r="R7">
-        <v>2.55</v>
+        <v>2.16</v>
       </c>
       <c r="S7">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="T7">
         <v>1.08</v>
@@ -1448,10 +1448,10 @@
         <v>2.25</v>
       </c>
       <c r="W7">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="X7">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="Y7">
         <v>1.48</v>
@@ -1510,10 +1510,10 @@
         <v>2.6</v>
       </c>
       <c r="H8">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I8">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J8">
         <v>1.12</v>
@@ -1522,16 +1522,16 @@
         <v>5.5</v>
       </c>
       <c r="L8">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M8">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="N8">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="O8">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P8">
         <v>1.56</v>
@@ -1555,10 +1555,10 @@
         <v>1.42</v>
       </c>
       <c r="W8">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="X8">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y8">
         <v>1.28</v>
@@ -1614,13 +1614,13 @@
         <v>99</v>
       </c>
       <c r="G9">
-        <v>3.35</v>
+        <v>3.64</v>
       </c>
       <c r="H9">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I9">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="J9">
         <v>1.04</v>
@@ -1635,10 +1635,10 @@
         <v>3.92</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="O9">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="P9">
         <v>1.36</v>
@@ -1662,10 +1662,10 @@
         <v>1.27</v>
       </c>
       <c r="W9">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X9">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Y9">
         <v>1.61</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>45085</v>
@@ -1712,7 +1712,7 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>73</v>
@@ -1721,96 +1721,96 @@
         <v>100</v>
       </c>
       <c r="G10">
+        <v>1.84</v>
+      </c>
+      <c r="H10">
         <v>3.5</v>
       </c>
-      <c r="H10">
-        <v>2.9</v>
-      </c>
       <c r="I10">
-        <v>2.3</v>
+        <v>4.44</v>
       </c>
       <c r="J10">
         <v>1.08</v>
       </c>
       <c r="K10">
-        <v>6.1</v>
+        <v>9.1</v>
       </c>
       <c r="L10">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>3.03</v>
       </c>
       <c r="N10">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="P10">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q10">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="R10">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T10">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="U10">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>1.63</v>
+      </c>
+      <c r="X10">
+        <v>1.7</v>
+      </c>
+      <c r="Y10">
+        <v>1.75</v>
+      </c>
+      <c r="Z10">
         <v>1.25</v>
       </c>
-      <c r="W10">
-        <v>1.13</v>
-      </c>
-      <c r="X10">
-        <v>1.33</v>
-      </c>
-      <c r="Y10">
-        <v>1.39</v>
-      </c>
-      <c r="Z10">
-        <v>1.15</v>
-      </c>
       <c r="AA10">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="AB10">
-        <v>2.01</v>
+        <v>1.42</v>
       </c>
       <c r="AC10">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10">
-        <v>2.03</v>
+        <v>3.56</v>
       </c>
       <c r="AE10">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AF10">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AG10">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AH10">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AI10">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
         <v>45085</v>
@@ -1819,7 +1819,7 @@
         <v>54</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -1828,91 +1828,91 @@
         <v>101</v>
       </c>
       <c r="G11">
-        <v>1.79</v>
+        <v>3.3</v>
       </c>
       <c r="H11">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="I11">
-        <v>4.45</v>
+        <v>2.16</v>
       </c>
       <c r="J11">
         <v>1.08</v>
       </c>
       <c r="K11">
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="L11">
+        <v>1.48</v>
+      </c>
+      <c r="M11">
+        <v>2.45</v>
+      </c>
+      <c r="N11">
+        <v>2.24</v>
+      </c>
+      <c r="O11">
+        <v>1.48</v>
+      </c>
+      <c r="P11">
+        <v>1.58</v>
+      </c>
+      <c r="Q11">
+        <v>2.29</v>
+      </c>
+      <c r="R11">
+        <v>2.04</v>
+      </c>
+      <c r="S11">
+        <v>1.74</v>
+      </c>
+      <c r="T11">
+        <v>1.5</v>
+      </c>
+      <c r="U11">
+        <v>1.32</v>
+      </c>
+      <c r="V11">
+        <v>1.25</v>
+      </c>
+      <c r="W11">
+        <v>1.13</v>
+      </c>
+      <c r="X11">
+        <v>1.33</v>
+      </c>
+      <c r="Y11">
         <v>1.39</v>
       </c>
-      <c r="M11">
-        <v>3.03</v>
-      </c>
-      <c r="N11">
-        <v>2.1</v>
-      </c>
-      <c r="O11">
-        <v>1.67</v>
-      </c>
-      <c r="P11">
-        <v>1.57</v>
-      </c>
-      <c r="Q11">
-        <v>2.49</v>
-      </c>
-      <c r="R11">
-        <v>2.05</v>
-      </c>
-      <c r="S11">
-        <v>1.73</v>
-      </c>
-      <c r="T11">
-        <v>1.19</v>
-      </c>
-      <c r="U11">
-        <v>1.29</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>1.63</v>
-      </c>
-      <c r="X11">
-        <v>1.7</v>
-      </c>
-      <c r="Y11">
-        <v>1.75</v>
-      </c>
       <c r="Z11">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AA11">
-        <v>3</v>
+        <v>2.54</v>
       </c>
       <c r="AB11">
-        <v>1.42</v>
+        <v>2.01</v>
       </c>
       <c r="AC11">
-        <v>9.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD11">
-        <v>3.56</v>
+        <v>2.03</v>
       </c>
       <c r="AE11">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AF11">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AG11">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AH11">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AI11">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1935,13 +1935,13 @@
         <v>102</v>
       </c>
       <c r="G12">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="H12">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I12">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J12">
         <v>1.08</v>
@@ -1956,10 +1956,10 @@
         <v>2.71</v>
       </c>
       <c r="N12">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="O12">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="P12">
         <v>1.53</v>
@@ -2042,52 +2042,52 @@
         <v>103</v>
       </c>
       <c r="G13">
-        <v>2.41</v>
+        <v>3.7</v>
       </c>
       <c r="H13">
-        <v>2.81</v>
+        <v>2.9</v>
       </c>
       <c r="I13">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="O13">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W13">
         <v>0.67</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2149,13 +2149,13 @@
         <v>104</v>
       </c>
       <c r="G14">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="H14">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="I14">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J14">
         <v>1.11</v>
@@ -2170,10 +2170,10 @@
         <v>2.35</v>
       </c>
       <c r="N14">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="O14">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="P14">
         <v>1.58</v>
@@ -2256,13 +2256,13 @@
         <v>105</v>
       </c>
       <c r="G15">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="H15">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I15">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="J15">
         <v>1.11</v>
@@ -2271,16 +2271,16 @@
         <v>6</v>
       </c>
       <c r="L15">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="N15">
         <v>2.4</v>
       </c>
       <c r="O15">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P15">
         <v>1.56</v>
@@ -2319,13 +2319,13 @@
         <v>3.91</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2363,52 +2363,52 @@
         <v>106</v>
       </c>
       <c r="G16">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H16">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I16">
         <v>2.25</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="N16">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -2470,13 +2470,13 @@
         <v>107</v>
       </c>
       <c r="G17">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="H17">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="I17">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="J17">
         <v>1.1</v>
@@ -2491,10 +2491,10 @@
         <v>2.68</v>
       </c>
       <c r="N17">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P17">
         <v>1.5</v>
@@ -2533,25 +2533,25 @@
         <v>3.26</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF17">
         <v>1.8</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
         <v>45085</v>
@@ -2568,7 +2568,7 @@
         <v>59</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>81</v>
@@ -2577,96 +2577,96 @@
         <v>108</v>
       </c>
       <c r="G18">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="H18">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I18">
-        <v>2.87</v>
+        <v>1.92</v>
       </c>
       <c r="J18">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K18">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="L18">
+        <v>1.32</v>
+      </c>
+      <c r="M18">
+        <v>3.35</v>
+      </c>
+      <c r="N18">
+        <v>2.06</v>
+      </c>
+      <c r="O18">
+        <v>1.63</v>
+      </c>
+      <c r="P18">
+        <v>1.4</v>
+      </c>
+      <c r="Q18">
+        <v>2.75</v>
+      </c>
+      <c r="R18">
+        <v>1.91</v>
+      </c>
+      <c r="S18">
+        <v>1.91</v>
+      </c>
+      <c r="T18">
+        <v>2.15</v>
+      </c>
+      <c r="U18">
+        <v>1.28</v>
+      </c>
+      <c r="V18">
+        <v>1.2</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1.88</v>
+      </c>
+      <c r="Y18">
+        <v>1.17</v>
+      </c>
+      <c r="Z18">
+        <v>1.34</v>
+      </c>
+      <c r="AA18">
+        <v>2.51</v>
+      </c>
+      <c r="AB18">
+        <v>3.07</v>
+      </c>
+      <c r="AC18">
+        <v>8.5</v>
+      </c>
+      <c r="AD18">
+        <v>1.51</v>
+      </c>
+      <c r="AE18">
+        <v>1.27</v>
+      </c>
+      <c r="AF18">
         <v>1.5</v>
       </c>
-      <c r="M18">
-        <v>2.37</v>
-      </c>
-      <c r="N18">
-        <v>2.3</v>
-      </c>
-      <c r="O18">
-        <v>1.55</v>
-      </c>
-      <c r="P18">
-        <v>1.44</v>
-      </c>
-      <c r="Q18">
-        <v>2.62</v>
-      </c>
-      <c r="R18">
-        <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.77</v>
-      </c>
-      <c r="T18">
-        <v>1.35</v>
-      </c>
-      <c r="U18">
-        <v>1.35</v>
-      </c>
-      <c r="V18">
-        <v>1.5</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0.5</v>
-      </c>
-      <c r="Y18">
-        <v>1.78</v>
-      </c>
-      <c r="Z18">
-        <v>1.11</v>
-      </c>
-      <c r="AA18">
-        <v>2.89</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
       <c r="AG18">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2">
         <v>45085</v>
@@ -2675,7 +2675,7 @@
         <v>59</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
@@ -2684,88 +2684,88 @@
         <v>109</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W19">
-        <v>2.43</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="Y19">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Z19">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AA19">
-        <v>3.4</v>
+        <v>2.89</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
         <v>45085</v>
@@ -2782,7 +2782,7 @@
         <v>59</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>83</v>
@@ -2791,91 +2791,91 @@
         <v>110</v>
       </c>
       <c r="G20">
-        <v>4.65</v>
+        <v>1.29</v>
       </c>
       <c r="H20">
-        <v>3.61</v>
+        <v>4.5</v>
       </c>
       <c r="I20">
-        <v>1.61</v>
+        <v>8</v>
       </c>
       <c r="J20">
         <v>1.05</v>
       </c>
       <c r="K20">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="L20">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M20">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="O20">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="P20">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q20">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="R20">
-        <v>1.91</v>
+        <v>2.23</v>
       </c>
       <c r="S20">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="T20">
-        <v>2.15</v>
+        <v>1.11</v>
       </c>
       <c r="U20">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="V20">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="Z20">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="AA20">
-        <v>2.51</v>
+        <v>2.76</v>
       </c>
       <c r="AB20">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AH20">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2898,52 +2898,52 @@
         <v>111</v>
       </c>
       <c r="G21">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H21">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="I21">
-        <v>4.14</v>
+        <v>4.5</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="N21">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W21">
         <v>0.33</v>
@@ -2976,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2">
         <v>45085</v>
@@ -2996,7 +2996,7 @@
         <v>59</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
         <v>85</v>
@@ -3005,13 +3005,13 @@
         <v>112</v>
       </c>
       <c r="G22">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3053,19 +3053,19 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y22">
-        <v>1.21</v>
+        <v>1.77</v>
       </c>
       <c r="Z22">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="AA22">
-        <v>2.76</v>
+        <v>3.4</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3112,52 +3112,52 @@
         <v>113</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H23">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>3.34</v>
+        <v>3.6</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="O23">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W23">
         <v>3</v>
@@ -3219,13 +3219,13 @@
         <v>114</v>
       </c>
       <c r="G24">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H24">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I24">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <v>1.13</v>
@@ -3234,16 +3234,16 @@
         <v>6.45</v>
       </c>
       <c r="L24">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M24">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="P24">
         <v>1.58</v>
@@ -3282,13 +3282,13 @@
         <v>2.81</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3297,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH24">
         <v>2</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3326,52 +3326,52 @@
         <v>115</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W25">
         <v>2.44</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3433,76 +3433,76 @@
         <v>116</v>
       </c>
       <c r="G26">
-        <v>2.13</v>
+        <v>1.51</v>
       </c>
       <c r="H26">
-        <v>3.03</v>
+        <v>3.9</v>
       </c>
       <c r="I26">
-        <v>3.18</v>
+        <v>5.6</v>
       </c>
       <c r="J26">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K26">
         <v>9</v>
       </c>
       <c r="L26">
+        <v>1.3</v>
+      </c>
+      <c r="M26">
+        <v>3.4</v>
+      </c>
+      <c r="N26">
+        <v>1.83</v>
+      </c>
+      <c r="O26">
+        <v>1.81</v>
+      </c>
+      <c r="P26">
         <v>1.36</v>
       </c>
-      <c r="M26">
-        <v>3.1</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
-      <c r="O26">
-        <v>1.67</v>
-      </c>
-      <c r="P26">
-        <v>1.44</v>
-      </c>
       <c r="Q26">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T26">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="U26">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="V26">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X26">
         <v>2.5</v>
       </c>
       <c r="Y26">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="Z26">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AA26">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="AB26">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="AC26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD26">
-        <v>2.1</v>
+        <v>3.56</v>
       </c>
       <c r="AE26">
         <v>1.25</v>
@@ -3511,10 +3511,10 @@
         <v>1.47</v>
       </c>
       <c r="AG26">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AH26">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AI26">
         <v>3.4</v>
@@ -3540,76 +3540,76 @@
         <v>117</v>
       </c>
       <c r="G27">
-        <v>1.41</v>
+        <v>2.18</v>
       </c>
       <c r="H27">
-        <v>4.15</v>
+        <v>3.25</v>
       </c>
       <c r="I27">
-        <v>6.2</v>
+        <v>3.05</v>
       </c>
       <c r="J27">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K27">
         <v>9</v>
       </c>
       <c r="L27">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="O27">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="P27">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="U27">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="V27">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="W27">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="X27">
         <v>2.5</v>
       </c>
       <c r="Y27">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="Z27">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="AA27">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="AB27">
-        <v>1.41</v>
+        <v>1.91</v>
       </c>
       <c r="AC27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD27">
-        <v>3.56</v>
+        <v>2.1</v>
       </c>
       <c r="AE27">
         <v>1.25</v>
@@ -3618,10 +3618,10 @@
         <v>1.47</v>
       </c>
       <c r="AG27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH27">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AI27">
         <v>3.4</v>
@@ -3647,13 +3647,13 @@
         <v>118</v>
       </c>
       <c r="G28">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="J28">
         <v>1.1</v>
@@ -3668,10 +3668,10 @@
         <v>2.63</v>
       </c>
       <c r="N28">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O28">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="P28">
         <v>1.44</v>
@@ -3710,28 +3710,28 @@
         <v>2.83</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH28">
         <v>2</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
   </sheetData>
